--- a/biology/Zoologie/Cynapes_baptizatus/Cynapes_baptizatus.xlsx
+++ b/biology/Zoologie/Cynapes_baptizatus/Cynapes_baptizatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynapes baptizatus est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynapes baptizatus est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Rodrigues, île de Maurice dans l'océan Indien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Rodrigues, île de Maurice dans l'océan Indien.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 9 mm[2]. Le mâle décrit par Wanless en 1979 mesure 5,68 mm et la femelle 8,16 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 9 mm. Le mâle décrit par Wanless en 1979 mesure 5,68 mm et la femelle 8,16 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Butler, 1876 : Preliminary notice of new species of Arachnida and Myriopoda from Rodriguez, collected by Mssrs George Gulliver and H. H. Slater. Annals and Magazine of Natural History, sér. 4, vol. 17, p. 439-446 (texte intégral).</t>
         </is>
